--- a/public/templates/doctor-combination-template.xlsx
+++ b/public/templates/doctor-combination-template.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="의사조합" sheetId="1" r:id="rId1"/>
     <sheet name="의사목록" sheetId="2" r:id="rId2"/>
+    <sheet name="목록" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>조합명</t>
   </si>
@@ -41,9 +42,6 @@
     <t>의사명</t>
   </si>
   <si>
-    <t>박창범(상담)</t>
-  </si>
-  <si>
     <t>황우상</t>
   </si>
   <si>
@@ -56,18 +54,6 @@
     <t>윤아향</t>
   </si>
   <si>
-    <t>박창범(진료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박(상담)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박(진료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,7 +70,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진</t>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간</t>
+  </si>
+  <si>
+    <t>야간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박창범</t>
+  </si>
+  <si>
+    <t>박창범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,22 +501,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="6" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="7" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,326 +524,356 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="e">
-        <f>VLOOKUP(D2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F2,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="str">
+        <f>VLOOKUP(E2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F2,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G2,의사목록!$A:$B,2,FALSE)</f>
+        <v>박구윤</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="e">
-        <f>VLOOKUP(D3,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E3,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F3,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="str">
+        <f>VLOOKUP(E3,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F3,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G3,의사목록!$A:$B,2,FALSE)</f>
+        <v>박구윤</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="e">
-        <f>VLOOKUP(D4,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E4,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F4,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f>VLOOKUP(E4,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F4,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G4,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="e">
-        <f>VLOOKUP(D5,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E5,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F5,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <f>VLOOKUP(E5,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F5,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G5,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="e">
-        <f>VLOOKUP(D6,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E6,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F6,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f>VLOOKUP(E6,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F6,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G6,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="e">
-        <f>VLOOKUP(D7,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E7,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F7,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f>VLOOKUP(E7,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F7,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G7,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="e">
-        <f>VLOOKUP(D8,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E8,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F8,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <f>VLOOKUP(E8,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F8,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G8,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="e">
-        <f>VLOOKUP(D9,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E9,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F9,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <f>VLOOKUP(E9,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F9,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G9,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="e">
-        <f>VLOOKUP(D10,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E10,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F10,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <f>VLOOKUP(E10,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F10,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G10,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="e">
-        <f>VLOOKUP(D11,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E11,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F11,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <f>VLOOKUP(E11,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F11,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G11,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="e">
-        <f>VLOOKUP(D12,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E12,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F12,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <f>VLOOKUP(E12,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F12,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G12,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="e">
-        <f>VLOOKUP(D13,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E13,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F13,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <f>VLOOKUP(E13,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F13,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G13,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="e">
-        <f>VLOOKUP(D14,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E14,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F14,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <f>VLOOKUP(E14,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F14,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G14,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="e">
-        <f>VLOOKUP(D15,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E15,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F15,의사목록!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <f>VLOOKUP(E15,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F15,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G15,의사목록!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="e">
-        <f>VLOOKUP(D16,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E16,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F16,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E16,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F16,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G16,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="e">
-        <f>VLOOKUP(D17,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E17,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F17,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E17,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F17,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G17,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="e">
-        <f>VLOOKUP(D18,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E18,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F18,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E18,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F18,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G18,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="e">
-        <f>VLOOKUP(D19,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E19,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F19,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E19,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F19,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G19,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="e">
-        <f>VLOOKUP(D20,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E20,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F20,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E20,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F20,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G20,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="e">
-        <f>VLOOKUP(D21,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E21,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F21,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E21,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F21,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G21,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="e">
-        <f>VLOOKUP(D22,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E22,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F22,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E22,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F22,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G22,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="e">
-        <f>VLOOKUP(D23,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E23,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F23,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E23,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F23,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G23,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="e">
-        <f>VLOOKUP(D24,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E24,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F24,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E24,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F24,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G24,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="e">
-        <f>VLOOKUP(D25,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E25,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F25,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E25,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F25,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G25,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="e">
-        <f>VLOOKUP(D26,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E26,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F26,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E26,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F26,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G26,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="e">
-        <f>VLOOKUP(D27,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E27,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F27,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E27,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F27,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G27,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="e">
-        <f>VLOOKUP(D28,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E28,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F28,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E28,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F28,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G28,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="e">
-        <f>VLOOKUP(D29,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E29,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F29,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E29,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F29,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G29,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="e">
-        <f>VLOOKUP(D30,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E30,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F30,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E30,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F30,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G30,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="e">
-        <f>VLOOKUP(D31,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E31,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F31,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E31,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F31,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G31,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="e">
-        <f>VLOOKUP(D32,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E32,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F32,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E32,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F32,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G32,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="e">
-        <f>VLOOKUP(D33,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E33,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F33,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E33,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F33,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G33,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="e">
-        <f>VLOOKUP(D34,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E34,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F34,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E34,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F34,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G34,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="e">
-        <f>VLOOKUP(D35,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E35,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F35,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E35,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F35,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G35,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="e">
-        <f>VLOOKUP(D36,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E36,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F36,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E36,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F36,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G36,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="e">
-        <f>VLOOKUP(D37,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E37,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F37,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E37,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F37,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G37,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="e">
-        <f>VLOOKUP(D38,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E38,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F38,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E38,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F38,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G38,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="e">
-        <f>VLOOKUP(D39,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E39,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F39,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E39,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F39,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G39,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="e">
-        <f>VLOOKUP(D40,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E40,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F40,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E40,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F40,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G40,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="e">
-        <f>VLOOKUP(D41,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E41,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F41,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E41,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F41,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G41,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="e">
-        <f>VLOOKUP(D42,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E42,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F42,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E42,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F42,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G42,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="e">
-        <f>VLOOKUP(D43,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E43,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F43,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E43,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F43,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G43,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="e">
-        <f>VLOOKUP(D44,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E44,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F44,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E44,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F44,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G44,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="e">
-        <f>VLOOKUP(D45,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E45,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F45,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E45,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F45,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G45,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="e">
-        <f>VLOOKUP(D46,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E46,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F46,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E46,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F46,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G46,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="e">
-        <f>VLOOKUP(D47,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(E47,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F47,의사목록!$A:$B,2,FALSE)</f>
+        <f>VLOOKUP(E47,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(F47,의사목록!$A:$B,2,FALSE) &amp; VLOOKUP(G47,의사목록!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:G1048576">
       <formula1>의사목록!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>목록!A:A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>목록!B:B</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 B3:C3 B2:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="D1 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -816,23 +886,23 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -840,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -848,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -856,15 +926,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +934,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A7 A1:A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A6 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>